--- a/Assembler/Artemis Opcode Datasheet.xlsx
+++ b/Assembler/Artemis Opcode Datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/gsleen_student_ubc_ca/Documents/Desktop/Personal Projects/8-Bit Computer/8-BitComputer/Assembler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048C6115E4A545BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6FA7EB5-1731-42E2-81E1-405A3948E309}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_F25DC773A252ABDACC1048C6115E4A545BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180A7FE3-624F-4D95-AFDE-99E1CF928563}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Opcode</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Decimal</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Add the accumulator with the memory address given</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,7 +154,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,8 +566,44 @@
         <v>02</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>DEC2BIN(C6,4)</f>
+        <v>0011</v>
+      </c>
+      <c r="E6" t="str">
+        <f>BIN2HEX(D6, 2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="str">
+        <f>DEC2BIN(C7,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E7" t="str">
+        <f>BIN2HEX(D7, 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="str">
+        <f>DEC2BIN(C8,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E8" t="str">
+        <f>BIN2HEX(D8, 2)</f>
+        <v>00</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
